--- a/docs/ProjectPlan.xlsx
+++ b/docs/ProjectPlan.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Arbeit\Udacity\udacity-ci-cd-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322AC11-905B-405E-A8A1-248D341207A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FD3D7-A679-4262-BA3F-15BAE11FA162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Week</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>Build System</t>
-  </si>
-  <si>
-    <t>Test Continuous Delivery</t>
-  </si>
-  <si>
-    <t>API returning no data</t>
-  </si>
-  <si>
-    <t>Connect to API</t>
   </si>
   <si>
     <t>Backend Ready for QA</t>
@@ -65,6 +56,75 @@
   </si>
   <si>
     <t>Vue.Js</t>
+  </si>
+  <si>
+    <t>API Set-Up (no data)</t>
+  </si>
+  <si>
+    <t>Vue.Js - Project setup</t>
+  </si>
+  <si>
+    <t>Vue.Js - Basic UI</t>
+  </si>
+  <si>
+    <t>Vue.Js - Connect to API</t>
+  </si>
+  <si>
+    <t>Vue.Js - Build UI for Business Logic</t>
+  </si>
+  <si>
+    <t>Continuous Integration</t>
+  </si>
+  <si>
+    <t>Business Logic Implementation</t>
+  </si>
+  <si>
+    <t>Github Repository</t>
+  </si>
+  <si>
+    <t>Makefile &amp; Scripts</t>
+  </si>
+  <si>
+    <t>Local Tests</t>
+  </si>
+  <si>
+    <t>GitHub Actions Config</t>
+  </si>
+  <si>
+    <t>Verify GitHub Actions</t>
+  </si>
+  <si>
+    <t>Continuous Delivery</t>
+  </si>
+  <si>
+    <t>Set-Up Azure Pipeline</t>
+  </si>
+  <si>
+    <t>Configure Pipeline.yaml</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Linting</t>
+  </si>
+  <si>
+    <t>Scripts</t>
+  </si>
+  <si>
+    <t>WebApp in Azure App Services</t>
+  </si>
+  <si>
+    <t>Pipeline in Azure DevOps</t>
+  </si>
+  <si>
+    <t>Set-Up Locust</t>
+  </si>
+  <si>
+    <t>Load-tested</t>
   </si>
 </sst>
 </file>
@@ -141,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -157,7 +217,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -378,13 +437,16 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -397,8 +459,12 @@
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -426,12 +492,14 @@
         <v>44155</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -459,13 +527,15 @@
       <c r="A3" s="7">
         <v>44162</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -494,12 +564,14 @@
         <v>44169</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -527,9 +599,13 @@
       <c r="A5" s="7">
         <v>44176</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -559,7 +635,9 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -589,8 +667,9 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -619,8 +698,12 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -649,8 +732,12 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -679,8 +766,6 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -708,13 +793,15 @@
         <v>44218</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -742,11 +829,15 @@
         <v>44225</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -774,7 +865,7 @@
         <v>44232</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="2"/>
@@ -834,15 +925,18 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -866,15 +960,18 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -899,10 +996,13 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -929,7 +1029,9 @@
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
